--- a/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-29.xlsx
+++ b/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-29.xlsx
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.685</v>
+        <v>1685</v>
       </c>
       <c r="C2" t="n">
         <v>36</v>
@@ -441,7 +441,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>1.299</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.974</v>
+        <v>5974</v>
       </c>
       <c r="C3" t="n">
         <v>81</v>
@@ -472,7 +472,7 @@
         <v>91</v>
       </c>
       <c r="I3" t="n">
-        <v>5.068000000000001</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.625</v>
+        <v>8625</v>
       </c>
       <c r="C4" t="n">
         <v>317</v>
@@ -497,13 +497,13 @@
         <v>26</v>
       </c>
       <c r="G4" t="n">
-        <v>1.774</v>
+        <v>1774</v>
       </c>
       <c r="H4" t="n">
         <v>147</v>
       </c>
       <c r="I4" t="n">
-        <v>6.616000000000001</v>
+        <v>6616</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.006</v>
+        <v>1006</v>
       </c>
       <c r="C5" t="n">
         <v>50</v>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.961</v>
+        <v>2961</v>
       </c>
       <c r="C6" t="n">
         <v>104</v>
@@ -565,7 +565,7 @@
         <v>23</v>
       </c>
       <c r="I6" t="n">
-        <v>2.263</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="7">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.541</v>
+        <v>11541</v>
       </c>
       <c r="C7" t="n">
         <v>234</v>
@@ -590,13 +590,13 @@
         <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>2.089</v>
+        <v>2089</v>
       </c>
       <c r="H7" t="n">
         <v>229</v>
       </c>
       <c r="I7" t="n">
-        <v>9.085000000000001</v>
+        <v>9085</v>
       </c>
     </row>
     <row r="8">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>216.896</v>
+        <v>216896</v>
       </c>
       <c r="C8" t="n">
-        <v>2.508</v>
+        <v>2508</v>
       </c>
       <c r="D8" t="n">
-        <v>1.913</v>
+        <v>1913</v>
       </c>
       <c r="E8" t="n">
         <v>226</v>
@@ -621,13 +621,13 @@
         <v>369</v>
       </c>
       <c r="G8" t="n">
-        <v>21.476</v>
+        <v>21476</v>
       </c>
       <c r="H8" t="n">
-        <v>4.777</v>
+        <v>4777</v>
       </c>
       <c r="I8" t="n">
-        <v>190.688</v>
+        <v>190688</v>
       </c>
     </row>
     <row r="9">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.843999999999999</v>
+        <v>5844</v>
       </c>
       <c r="C9" t="n">
         <v>238</v>
@@ -652,13 +652,13 @@
         <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>2.106</v>
+        <v>2106</v>
       </c>
       <c r="H9" t="n">
         <v>69</v>
       </c>
       <c r="I9" t="n">
-        <v>3.716</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="10">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.462999999999999</v>
+        <v>5463</v>
       </c>
       <c r="C10" t="n">
         <v>141</v>
@@ -683,13 +683,13 @@
         <v>14</v>
       </c>
       <c r="G10" t="n">
-        <v>1.387</v>
+        <v>1387</v>
       </c>
       <c r="H10" t="n">
         <v>48</v>
       </c>
       <c r="I10" t="n">
-        <v>4.005</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="11">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.384</v>
+        <v>2384</v>
       </c>
       <c r="C11" t="n">
         <v>21</v>
@@ -720,7 +720,7 @@
         <v>32</v>
       </c>
       <c r="I11" t="n">
-        <v>1.97</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="12">
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.595</v>
+        <v>6595</v>
       </c>
       <c r="C12" t="n">
         <v>197</v>
@@ -745,13 +745,13 @@
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>2.043</v>
+        <v>2043</v>
       </c>
       <c r="H12" t="n">
         <v>50</v>
       </c>
       <c r="I12" t="n">
-        <v>4.523</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="13">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.212</v>
+        <v>3212</v>
       </c>
       <c r="C13" t="n">
         <v>40</v>
@@ -782,7 +782,7 @@
         <v>41</v>
       </c>
       <c r="I13" t="n">
-        <v>2.88</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="14">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.642</v>
+        <v>1642</v>
       </c>
       <c r="C15" t="n">
         <v>33</v>
@@ -844,7 +844,7 @@
         <v>21</v>
       </c>
       <c r="I15" t="n">
-        <v>1.311</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="16">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.44</v>
+        <v>1440</v>
       </c>
       <c r="C17" t="n">
         <v>5</v>
@@ -906,7 +906,7 @@
         <v>15</v>
       </c>
       <c r="I17" t="n">
-        <v>1.29</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="18">
@@ -947,13 +947,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>275.999</v>
+        <v>275999</v>
       </c>
       <c r="C19" t="n">
-        <v>4.016999999999999</v>
+        <v>4017</v>
       </c>
       <c r="D19" t="n">
-        <v>3.092</v>
+        <v>3092</v>
       </c>
       <c r="E19" t="n">
         <v>432</v>
@@ -962,13 +962,13 @@
         <v>493</v>
       </c>
       <c r="G19" t="n">
-        <v>34.27</v>
+        <v>34270</v>
       </c>
       <c r="H19" t="n">
-        <v>5.575</v>
+        <v>5575</v>
       </c>
       <c r="I19" t="n">
-        <v>236.154</v>
+        <v>236154</v>
       </c>
     </row>
   </sheetData>
